--- a/Product Backlog-144-Bill_Payment_System.xlsx
+++ b/Product Backlog-144-Bill_Payment_System.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\220034\Desktop\Academy\1st 50 pdf\1st 50 increased scope\New folder\144 Bill Payment system\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\799453\Desktop\Final Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1410" windowWidth="12000" windowHeight="6585" tabRatio="711" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="1410" windowWidth="12000" windowHeight="6585" tabRatio="711"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="9" r:id="rId1"/>
@@ -105,7 +105,7 @@
     <author>165550</author>
   </authors>
   <commentList>
-    <comment ref="B7" authorId="0" shapeId="0">
+    <comment ref="B5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -965,15 +965,6 @@
     <t>TBU</t>
   </si>
   <si>
-    <t>Proposed</t>
-  </si>
-  <si>
-    <t>Person 3</t>
-  </si>
-  <si>
-    <t>Product Owner</t>
-  </si>
-  <si>
     <t>Low</t>
   </si>
   <si>
@@ -1228,6 +1219,15 @@
   </si>
   <si>
     <t>FEA 4.1</t>
+  </si>
+  <si>
+    <t>Complete</t>
+  </si>
+  <si>
+    <t>GenC</t>
+  </si>
+  <si>
+    <t>Bobburi Sri Harsha</t>
   </si>
 </sst>
 </file>
@@ -2124,6 +2124,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2180,27 +2192,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2217,6 +2208,27 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2274,18 +2286,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2294,8 +2294,36 @@
     <cellStyle name="Normal 2 2" xfId="2"/>
     <cellStyle name="Normal 2 3" xfId="3"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2355,35 +2383,23 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Report Data'!$B$4:$B$6</c:f>
+              <c:f>'Report Data'!$B$4:$B$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Report Data'!$D$4:$D$6</c:f>
+              <c:f>'Report Data'!$D$4:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2412,36 +2428,24 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Report Data'!$B$4:$B$6</c:f>
+              <c:f>'Report Data'!$B$4:$B$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Report Data'!$E$4:$E$6</c:f>
+              <c:f>'Report Data'!$E$4:$E$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2470,35 +2474,23 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Report Data'!$B$4:$B$6</c:f>
+              <c:f>'Report Data'!$B$4:$B$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Report Data'!$F$4:$F$6</c:f>
+              <c:f>'Report Data'!$F$4:$F$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2527,35 +2519,23 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Report Data'!$B$4:$B$6</c:f>
+              <c:f>'Report Data'!$B$4:$B$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Report Data'!$G$4:$G$6</c:f>
+              <c:f>'Report Data'!$G$4:$G$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2797,24 +2777,20 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Report Data'!$A$4:$A$7</c:f>
+              <c:f>'Report Data'!$A$4:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>Release 1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Release 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Release 0</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>Not Assigned</c:v>
                 </c:pt>
               </c:strCache>
@@ -2822,20 +2798,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Report Data'!$C$4:$C$7</c:f>
+              <c:f>'Report Data'!$C$4:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>28</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2867,6 +2837,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -2915,10 +2886,11 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Chart8"/>
   <sheetViews>
-    <sheetView zoomScale="71" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="118" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="landscape" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </chartsheet>
 </file>
 
@@ -2926,10 +2898,11 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Chart9"/>
   <sheetViews>
-    <sheetView zoomScale="71" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="118" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="landscape" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </chartsheet>
 </file>
 
@@ -4401,7 +4374,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8679824" cy="6291866"/>
+    <xdr:ext cx="8669364" cy="6288114"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -4698,7 +4671,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8679824" cy="6291866"/>
+    <xdr:ext cx="8669364" cy="6288114"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -5275,8 +5248,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:G8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5332,74 +5305,74 @@
       <c r="G5" s="51"/>
     </row>
     <row r="6" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="134"/>
-      <c r="C6" s="135"/>
-      <c r="D6" s="135"/>
-      <c r="E6" s="135"/>
-      <c r="F6" s="135"/>
-      <c r="G6" s="136"/>
+      <c r="B6" s="138"/>
+      <c r="C6" s="139"/>
+      <c r="D6" s="139"/>
+      <c r="E6" s="139"/>
+      <c r="F6" s="139"/>
+      <c r="G6" s="140"/>
     </row>
     <row r="7" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="134"/>
-      <c r="C7" s="135"/>
-      <c r="D7" s="135"/>
-      <c r="E7" s="135"/>
-      <c r="F7" s="135"/>
-      <c r="G7" s="136"/>
+      <c r="B7" s="138"/>
+      <c r="C7" s="139"/>
+      <c r="D7" s="139"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="139"/>
+      <c r="G7" s="140"/>
     </row>
     <row r="8" spans="2:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="134" t="s">
-        <v>128</v>
-      </c>
-      <c r="C8" s="135"/>
-      <c r="D8" s="135"/>
-      <c r="E8" s="135"/>
-      <c r="F8" s="135"/>
-      <c r="G8" s="136"/>
+      <c r="B8" s="138" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" s="139"/>
+      <c r="D8" s="139"/>
+      <c r="E8" s="139"/>
+      <c r="F8" s="139"/>
+      <c r="G8" s="140"/>
     </row>
     <row r="9" spans="2:7" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="B9" s="137"/>
-      <c r="C9" s="138"/>
-      <c r="D9" s="138"/>
-      <c r="E9" s="138"/>
-      <c r="F9" s="138"/>
-      <c r="G9" s="139"/>
+      <c r="B9" s="141"/>
+      <c r="C9" s="142"/>
+      <c r="D9" s="142"/>
+      <c r="E9" s="142"/>
+      <c r="F9" s="142"/>
+      <c r="G9" s="143"/>
     </row>
     <row r="10" spans="2:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="134" t="s">
+      <c r="B10" s="138" t="s">
         <v>114</v>
       </c>
-      <c r="C10" s="135"/>
-      <c r="D10" s="135"/>
-      <c r="E10" s="135"/>
-      <c r="F10" s="135"/>
-      <c r="G10" s="136"/>
+      <c r="C10" s="139"/>
+      <c r="D10" s="139"/>
+      <c r="E10" s="139"/>
+      <c r="F10" s="139"/>
+      <c r="G10" s="140"/>
     </row>
     <row r="11" spans="2:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="140"/>
-      <c r="C11" s="141"/>
-      <c r="D11" s="141"/>
-      <c r="E11" s="141"/>
-      <c r="F11" s="141"/>
-      <c r="G11" s="142"/>
+      <c r="B11" s="144"/>
+      <c r="C11" s="145"/>
+      <c r="D11" s="145"/>
+      <c r="E11" s="145"/>
+      <c r="F11" s="145"/>
+      <c r="G11" s="146"/>
     </row>
     <row r="12" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="140"/>
-      <c r="C12" s="141"/>
-      <c r="D12" s="141"/>
-      <c r="E12" s="141"/>
-      <c r="F12" s="141"/>
-      <c r="G12" s="142"/>
+      <c r="B12" s="144"/>
+      <c r="C12" s="145"/>
+      <c r="D12" s="145"/>
+      <c r="E12" s="145"/>
+      <c r="F12" s="145"/>
+      <c r="G12" s="146"/>
     </row>
     <row r="13" spans="2:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B13" s="128">
+      <c r="B13" s="132">
         <v>144</v>
       </c>
-      <c r="C13" s="129"/>
-      <c r="D13" s="129"/>
-      <c r="E13" s="129"/>
-      <c r="F13" s="129"/>
-      <c r="G13" s="130"/>
+      <c r="C13" s="133"/>
+      <c r="D13" s="133"/>
+      <c r="E13" s="133"/>
+      <c r="F13" s="133"/>
+      <c r="G13" s="134"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B14" s="10"/>
@@ -5458,12 +5431,12 @@
       <c r="G20" s="9"/>
     </row>
     <row r="21" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B21" s="131"/>
-      <c r="C21" s="132"/>
-      <c r="D21" s="132"/>
-      <c r="E21" s="132"/>
-      <c r="F21" s="132"/>
-      <c r="G21" s="133"/>
+      <c r="B21" s="135"/>
+      <c r="C21" s="136"/>
+      <c r="D21" s="136"/>
+      <c r="E21" s="136"/>
+      <c r="F21" s="136"/>
+      <c r="G21" s="137"/>
       <c r="H21"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -5505,26 +5478,26 @@
       <c r="G25" s="51"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B26" s="11"/>
       <c r="C26" s="42" t="s">
         <v>3</v>
       </c>
       <c r="D26" s="107" t="s">
-        <v>121</v>
+        <v>169</v>
       </c>
       <c r="E26" s="107"/>
       <c r="F26" s="107"/>
       <c r="G26" s="51"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B27" s="11"/>
       <c r="C27" s="42" t="s">
         <v>4</v>
       </c>
       <c r="D27" s="107" t="s">
-        <v>122</v>
+        <v>168</v>
       </c>
       <c r="E27" s="43"/>
       <c r="F27" s="43"/>
@@ -5547,7 +5520,9 @@
       <c r="C29" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="D29" s="44"/>
+      <c r="D29" s="44">
+        <v>43801</v>
+      </c>
       <c r="E29" s="44"/>
       <c r="F29" s="44"/>
       <c r="G29" s="51"/>
@@ -5567,7 +5542,9 @@
       <c r="B31" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="19"/>
+      <c r="C31" s="19">
+        <v>144</v>
+      </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="39" t="s">
@@ -5654,25 +5631,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" s="55" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="154" t="s">
-        <v>129</v>
-      </c>
-      <c r="C1" s="155"/>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="155"/>
-      <c r="G1" s="155"/>
-      <c r="H1" s="155"/>
+      <c r="B1" s="151" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
       <c r="N1" s="56"/>
       <c r="O1" s="56"/>
     </row>
     <row r="2" spans="2:15" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="2:15" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="2:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="156" t="s">
+      <c r="C4" s="153" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="157"/>
+      <c r="D4" s="154"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C5" s="59" t="s">
@@ -5681,10 +5658,10 @@
       <c r="D5" s="59"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C6" s="158" t="s">
+      <c r="C6" s="155" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="159"/>
+      <c r="D6" s="156"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C7" s="60" t="s">
@@ -5759,16 +5736,16 @@
       </c>
     </row>
     <row r="18" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="156" t="s">
+      <c r="C18" s="153" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="157"/>
+      <c r="D18" s="154"/>
     </row>
     <row r="19" spans="3:4" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="145" t="s">
+      <c r="C19" s="149" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="160"/>
+      <c r="D19" s="157"/>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C20" s="60" t="s">
@@ -5893,10 +5870,10 @@
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="66"/>
       <c r="B35" s="67"/>
-      <c r="C35" s="143" t="s">
+      <c r="C35" s="147" t="s">
         <v>73</v>
       </c>
-      <c r="D35" s="144"/>
+      <c r="D35" s="148"/>
     </row>
     <row r="36" spans="1:4" ht="63.75" x14ac:dyDescent="0.2">
       <c r="C36" s="60" t="s">
@@ -5923,75 +5900,81 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C40" s="143" t="s">
+      <c r="C40" s="147" t="s">
         <v>80</v>
       </c>
-      <c r="D40" s="144"/>
+      <c r="D40" s="148"/>
     </row>
     <row r="41" spans="1:4" ht="354.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C41" s="145" t="s">
+      <c r="C41" s="149" t="s">
         <v>81</v>
       </c>
-      <c r="D41" s="146"/>
+      <c r="D41" s="150"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C44" s="143" t="s">
+      <c r="C44" s="147" t="s">
         <v>82</v>
       </c>
-      <c r="D44" s="144"/>
+      <c r="D44" s="148"/>
     </row>
     <row r="45" spans="1:4" ht="360.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C45" s="145" t="s">
+      <c r="C45" s="149" t="s">
         <v>83</v>
       </c>
-      <c r="D45" s="146"/>
+      <c r="D45" s="150"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C46" s="143" t="s">
+      <c r="C46" s="147" t="s">
         <v>84</v>
       </c>
-      <c r="D46" s="144"/>
+      <c r="D46" s="148"/>
     </row>
     <row r="47" spans="1:4" ht="153" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C47" s="145" t="s">
+      <c r="C47" s="149" t="s">
         <v>85</v>
       </c>
-      <c r="D47" s="146"/>
+      <c r="D47" s="150"/>
     </row>
     <row r="50" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C50" s="153" t="s">
+      <c r="C50" s="164" t="s">
         <v>111</v>
       </c>
-      <c r="D50" s="144"/>
+      <c r="D50" s="148"/>
     </row>
     <row r="51" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C51" s="147" t="s">
+      <c r="C51" s="158" t="s">
         <v>112</v>
       </c>
-      <c r="D51" s="148"/>
+      <c r="D51" s="159"/>
     </row>
     <row r="52" spans="3:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C52" s="149"/>
-      <c r="D52" s="150"/>
+      <c r="C52" s="160"/>
+      <c r="D52" s="161"/>
     </row>
     <row r="53" spans="3:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C53" s="149"/>
-      <c r="D53" s="150"/>
+      <c r="C53" s="160"/>
+      <c r="D53" s="161"/>
     </row>
     <row r="54" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C54" s="149"/>
-      <c r="D54" s="150"/>
+      <c r="C54" s="160"/>
+      <c r="D54" s="161"/>
     </row>
     <row r="55" spans="3:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C55" s="149"/>
-      <c r="D55" s="150"/>
+      <c r="C55" s="160"/>
+      <c r="D55" s="161"/>
     </row>
     <row r="56" spans="3:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C56" s="151"/>
-      <c r="D56" s="152"/>
+      <c r="C56" s="162"/>
+      <c r="D56" s="163"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C51:D56"/>
+    <mergeCell ref="C50:D50"/>
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="B1:H1"/>
@@ -6000,12 +5983,6 @@
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C51:D56"/>
-    <mergeCell ref="C50:D50"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1">
@@ -6030,7 +6007,7 @@
   <dimension ref="A1:AH177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6049,15 +6026,15 @@
   <sheetData>
     <row r="1" spans="1:34" s="55" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="113"/>
-      <c r="B1" s="154" t="s">
-        <v>130</v>
-      </c>
-      <c r="C1" s="155"/>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="155"/>
-      <c r="G1" s="155"/>
-      <c r="H1" s="155"/>
+      <c r="B1" s="151" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
     </row>
     <row r="2" spans="1:34" s="70" customFormat="1" ht="39" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="114" t="s">
@@ -6118,13 +6095,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="106" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C3" s="106" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D3" s="106" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E3" s="71" t="s">
         <v>117</v>
@@ -6170,13 +6147,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="106" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C4" s="106" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D4" s="122" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E4" s="124" t="s">
         <v>117</v>
@@ -6222,13 +6199,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="106" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C5" s="106" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D5" s="106" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E5" s="125" t="s">
         <v>117</v>
@@ -6274,13 +6251,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="106" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C6" s="106" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D6" s="106" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E6" s="125" t="s">
         <v>117</v>
@@ -6289,7 +6266,7 @@
         <v>118</v>
       </c>
       <c r="G6" s="106" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H6" s="71" t="s">
         <v>116</v>
@@ -8695,8 +8672,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:AP174"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8720,16 +8697,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" s="55" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="154" t="s">
-        <v>131</v>
-      </c>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154"/>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="154"/>
+      <c r="B1" s="151" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
+      <c r="I1" s="151"/>
       <c r="N1" s="56"/>
       <c r="O1" s="56"/>
     </row>
@@ -8779,11 +8756,11 @@
       <c r="O2" s="103" t="s">
         <v>71</v>
       </c>
-      <c r="P2" s="161" t="s">
+      <c r="P2" s="165" t="s">
         <v>73</v>
       </c>
-      <c r="Q2" s="161"/>
-      <c r="R2" s="161"/>
+      <c r="Q2" s="165"/>
+      <c r="R2" s="165"/>
       <c r="S2" s="104"/>
       <c r="T2" s="104"/>
       <c r="U2" s="104"/>
@@ -8877,38 +8854,42 @@
         <v>119</v>
       </c>
       <c r="G4" s="127" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H4" s="109" t="s">
-        <v>162</v>
-      </c>
-      <c r="I4" s="181" t="s">
-        <v>148</v>
-      </c>
-      <c r="J4" s="182" t="s">
-        <v>149</v>
-      </c>
-      <c r="K4" s="108" t="s">
+        <v>159</v>
+      </c>
+      <c r="I4" s="128" t="s">
+        <v>145</v>
+      </c>
+      <c r="J4" s="129" t="s">
+        <v>146</v>
+      </c>
+      <c r="K4" s="109" t="s">
         <v>89</v>
       </c>
       <c r="L4" s="108" t="s">
         <v>90</v>
       </c>
-      <c r="M4" s="108"/>
-      <c r="N4" s="108"/>
-      <c r="O4" s="108" t="s">
-        <v>120</v>
+      <c r="M4" s="108">
+        <v>1</v>
+      </c>
+      <c r="N4" s="108">
+        <v>0.5</v>
+      </c>
+      <c r="O4" s="109" t="s">
+        <v>167</v>
       </c>
       <c r="P4" s="110">
-        <f t="shared" ref="P4:P17" si="0">IF(K4="X",IF(O4="Complete",N4,0),0)</f>
+        <f t="shared" ref="P4:P11" si="0">IF(K4="X",IF(O4="Complete",N4,0),0)</f>
+        <v>0.5</v>
+      </c>
+      <c r="Q4" s="111">
+        <f t="shared" ref="Q4:Q11" si="1">IF(K4&lt;&gt;"X",IF(O4&lt;&gt;"Complete",N4,0),0)</f>
         <v>0</v>
       </c>
-      <c r="Q4" s="111">
-        <f t="shared" ref="Q4:Q17" si="1">IF(K4&lt;&gt;"X",IF(O4&lt;&gt;"Complete",N4,0),0)</f>
-        <v>0</v>
-      </c>
       <c r="R4" s="111">
-        <f t="shared" ref="R4:R17" si="2">IF(K4&lt;&gt;"X",IF(O4="Complete",N4,0),0)</f>
+        <f t="shared" ref="R4:R11" si="2">IF(K4&lt;&gt;"X",IF(O4="Complete",N4,0),0)</f>
         <v>0</v>
       </c>
       <c r="S4" s="104"/>
@@ -8955,16 +8936,16 @@
         <v>119</v>
       </c>
       <c r="G5" s="127" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H5" s="109" t="s">
-        <v>163</v>
-      </c>
-      <c r="I5" s="183" t="s">
-        <v>150</v>
-      </c>
-      <c r="J5" s="184" t="s">
-        <v>151</v>
+        <v>160</v>
+      </c>
+      <c r="I5" s="130" t="s">
+        <v>147</v>
+      </c>
+      <c r="J5" s="131" t="s">
+        <v>148</v>
       </c>
       <c r="K5" s="108" t="s">
         <v>89</v>
@@ -8972,14 +8953,18 @@
       <c r="L5" s="108" t="s">
         <v>90</v>
       </c>
-      <c r="M5" s="108"/>
-      <c r="N5" s="108"/>
+      <c r="M5" s="108">
+        <v>1</v>
+      </c>
+      <c r="N5" s="108">
+        <v>0.5</v>
+      </c>
       <c r="O5" s="108" t="s">
-        <v>120</v>
+        <v>167</v>
       </c>
       <c r="P5" s="110">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q5" s="111">
         <f t="shared" si="1"/>
@@ -9033,16 +9018,16 @@
         <v>119</v>
       </c>
       <c r="G6" s="127" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H6" s="109" t="s">
-        <v>164</v>
-      </c>
-      <c r="I6" s="183" t="s">
-        <v>134</v>
-      </c>
-      <c r="J6" s="184" t="s">
-        <v>152</v>
+        <v>161</v>
+      </c>
+      <c r="I6" s="130" t="s">
+        <v>131</v>
+      </c>
+      <c r="J6" s="131" t="s">
+        <v>149</v>
       </c>
       <c r="K6" s="108" t="s">
         <v>89</v>
@@ -9050,14 +9035,18 @@
       <c r="L6" s="108" t="s">
         <v>90</v>
       </c>
-      <c r="M6" s="108"/>
-      <c r="N6" s="108"/>
+      <c r="M6" s="108">
+        <v>1</v>
+      </c>
+      <c r="N6" s="108">
+        <v>1</v>
+      </c>
       <c r="O6" s="108" t="s">
-        <v>120</v>
+        <v>167</v>
       </c>
       <c r="P6" s="110">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="111">
         <f t="shared" si="1"/>
@@ -9111,16 +9100,16 @@
         <v>119</v>
       </c>
       <c r="G7" s="127" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H7" s="109" t="s">
-        <v>165</v>
-      </c>
-      <c r="I7" s="183" t="s">
-        <v>153</v>
-      </c>
-      <c r="J7" s="184" t="s">
-        <v>154</v>
+        <v>162</v>
+      </c>
+      <c r="I7" s="130" t="s">
+        <v>150</v>
+      </c>
+      <c r="J7" s="131" t="s">
+        <v>151</v>
       </c>
       <c r="K7" s="108" t="s">
         <v>89</v>
@@ -9128,14 +9117,18 @@
       <c r="L7" s="109" t="s">
         <v>90</v>
       </c>
-      <c r="M7" s="108"/>
-      <c r="N7" s="108"/>
+      <c r="M7" s="108">
+        <v>1</v>
+      </c>
+      <c r="N7" s="108">
+        <v>1</v>
+      </c>
       <c r="O7" s="108" t="s">
-        <v>120</v>
+        <v>167</v>
       </c>
       <c r="P7" s="110">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="111">
         <f t="shared" si="1"/>
@@ -9189,16 +9182,16 @@
         <v>119</v>
       </c>
       <c r="G8" s="127" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H8" s="109" t="s">
-        <v>166</v>
-      </c>
-      <c r="I8" s="183" t="s">
-        <v>135</v>
-      </c>
-      <c r="J8" s="184" t="s">
-        <v>155</v>
+        <v>163</v>
+      </c>
+      <c r="I8" s="130" t="s">
+        <v>132</v>
+      </c>
+      <c r="J8" s="131" t="s">
+        <v>152</v>
       </c>
       <c r="K8" s="108" t="s">
         <v>89</v>
@@ -9206,10 +9199,14 @@
       <c r="L8" s="108" t="s">
         <v>90</v>
       </c>
-      <c r="M8" s="108"/>
-      <c r="N8" s="108"/>
+      <c r="M8" s="108">
+        <v>1</v>
+      </c>
+      <c r="N8" s="108">
+        <v>1</v>
+      </c>
       <c r="O8" s="108" t="s">
-        <v>120</v>
+        <v>167</v>
       </c>
       <c r="P8" s="110">
         <v>0</v>
@@ -9264,16 +9261,16 @@
         <v>119</v>
       </c>
       <c r="G9" s="127" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H9" s="109" t="s">
-        <v>167</v>
-      </c>
-      <c r="I9" s="183" t="s">
-        <v>156</v>
-      </c>
-      <c r="J9" s="184" t="s">
-        <v>157</v>
+        <v>164</v>
+      </c>
+      <c r="I9" s="130" t="s">
+        <v>153</v>
+      </c>
+      <c r="J9" s="131" t="s">
+        <v>154</v>
       </c>
       <c r="K9" s="108" t="s">
         <v>89</v>
@@ -9281,14 +9278,18 @@
       <c r="L9" s="108" t="s">
         <v>90</v>
       </c>
-      <c r="M9" s="108"/>
-      <c r="N9" s="108"/>
+      <c r="M9" s="108">
+        <v>1</v>
+      </c>
+      <c r="N9" s="108">
+        <v>1</v>
+      </c>
       <c r="O9" s="108" t="s">
-        <v>120</v>
+        <v>167</v>
       </c>
       <c r="P9" s="110">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="111">
         <f t="shared" si="1"/>
@@ -9342,16 +9343,16 @@
         <v>119</v>
       </c>
       <c r="G10" s="127" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H10" s="109" t="s">
-        <v>168</v>
-      </c>
-      <c r="I10" s="183" t="s">
-        <v>158</v>
-      </c>
-      <c r="J10" s="184" t="s">
-        <v>159</v>
+        <v>165</v>
+      </c>
+      <c r="I10" s="130" t="s">
+        <v>155</v>
+      </c>
+      <c r="J10" s="131" t="s">
+        <v>156</v>
       </c>
       <c r="K10" s="108" t="s">
         <v>89</v>
@@ -9359,14 +9360,18 @@
       <c r="L10" s="108" t="s">
         <v>90</v>
       </c>
-      <c r="M10" s="108"/>
-      <c r="N10" s="108"/>
+      <c r="M10" s="108">
+        <v>1</v>
+      </c>
+      <c r="N10" s="108">
+        <v>1</v>
+      </c>
       <c r="O10" s="108" t="s">
-        <v>120</v>
+        <v>167</v>
       </c>
       <c r="P10" s="110">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="111">
         <f t="shared" si="1"/>
@@ -9420,16 +9425,16 @@
         <v>119</v>
       </c>
       <c r="G11" s="127" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H11" s="109" t="s">
-        <v>169</v>
-      </c>
-      <c r="I11" s="183" t="s">
-        <v>160</v>
-      </c>
-      <c r="J11" s="184" t="s">
-        <v>161</v>
+        <v>166</v>
+      </c>
+      <c r="I11" s="130" t="s">
+        <v>157</v>
+      </c>
+      <c r="J11" s="131" t="s">
+        <v>158</v>
       </c>
       <c r="K11" s="108" t="s">
         <v>89</v>
@@ -9437,14 +9442,18 @@
       <c r="L11" s="108" t="s">
         <v>90</v>
       </c>
-      <c r="M11" s="108"/>
-      <c r="N11" s="108"/>
+      <c r="M11" s="108">
+        <v>1</v>
+      </c>
+      <c r="N11" s="108">
+        <v>1</v>
+      </c>
       <c r="O11" s="108" t="s">
-        <v>120</v>
+        <v>167</v>
       </c>
       <c r="P11" s="110">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="111">
         <f t="shared" si="1"/>
@@ -9837,7 +9846,7 @@
       <c r="M22" s="86"/>
       <c r="N22" s="87">
         <f>SUM(N4:N17)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="O22" s="85"/>
       <c r="AP22" s="84"/>
@@ -12491,10 +12500,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:H1"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12509,28 +12518,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="55" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="154" t="s">
-        <v>132</v>
-      </c>
-      <c r="C1" s="155"/>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="155"/>
-      <c r="G1" s="155"/>
-      <c r="H1" s="155"/>
+      <c r="B1" s="151" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
       <c r="N1" s="56"/>
       <c r="O1" s="56"/>
     </row>
     <row r="2" spans="1:15" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="162" t="s">
+      <c r="A2" s="166" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="163"/>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="164"/>
-      <c r="G2" s="164"/>
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="168"/>
+      <c r="G2" s="168"/>
     </row>
     <row r="3" spans="1:15" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A3" s="93" t="s">
@@ -12562,15 +12571,14 @@
         <v>1</v>
       </c>
       <c r="C4" s="95">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D4" s="95">
         <f>'Product - Release Tracking'!N22-E4-G4</f>
         <v>0</v>
       </c>
       <c r="E4" s="95">
-        <f>SUMIF('Product - Release Tracking'!A$4:A$17,'Report Data'!B4,'Product - Release Tracking'!P$4:P$17)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F4" s="95">
         <v>0</v>
@@ -12583,86 +12591,30 @@
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="95" t="str">
         <f>IF(B5 = "", "Not Assigned", "Release " &amp; B5)</f>
-        <v>Release 2</v>
-      </c>
-      <c r="B5" s="95">
-        <v>2</v>
+        <v>Not Assigned</v>
+      </c>
+      <c r="B5" s="95" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="C5" s="95">
-        <v>40</v>
-      </c>
-      <c r="D5" s="95">
-        <f>D4-E5-G5</f>
+        <f>SUMIF('Product - Release Tracking'!A$4:A$17,'Report Data'!B5,'Product - Release Tracking'!N$4:N$17)</f>
         <v>0</v>
+      </c>
+      <c r="D5" s="95" t="e">
+        <f>#REF!-E5-G5</f>
+        <v>#REF!</v>
       </c>
       <c r="E5" s="95">
         <f>SUMIF('Product - Release Tracking'!A$4:A$17,'Report Data'!B5,'Product - Release Tracking'!P$4:P$17)</f>
         <v>0</v>
       </c>
       <c r="F5" s="95">
+        <f>SUMIF('Product - Release Tracking'!A$4:A$17,'Report Data'!B5,'Product - Release Tracking'!Q$4:Q$17)</f>
         <v>0</v>
       </c>
       <c r="G5" s="95">
         <f>SUMIF('Product - Release Tracking'!A$4:A$17,'Report Data'!B5,'Product - Release Tracking'!R$4:R$17)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="95" t="str">
-        <f>IF(B6 = "", "Not Assigned", "Release " &amp; B6)</f>
-        <v>Release 0</v>
-      </c>
-      <c r="B6" s="95">
-        <v>0</v>
-      </c>
-      <c r="C6" s="95">
-        <f>SUMIF('Product - Release Tracking'!A$4:A$17,'Report Data'!B6,'Product - Release Tracking'!N$4:N$17)</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="95">
-        <f>D5-E6-G6</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="95">
-        <f>SUMIF('Product - Release Tracking'!A$4:A$17,'Report Data'!B6,'Product - Release Tracking'!P$4:P$17)</f>
-        <v>0</v>
-      </c>
-      <c r="F6" s="95">
-        <f>SUMIF('Product - Release Tracking'!A$4:A$17,'Report Data'!B6,'Product - Release Tracking'!Q$4:Q$17)</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="95">
-        <f>SUMIF('Product - Release Tracking'!A$4:A$17,'Report Data'!B6,'Product - Release Tracking'!R$4:R$17)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="95" t="str">
-        <f>IF(B7 = "", "Not Assigned", "Release " &amp; B7)</f>
-        <v>Not Assigned</v>
-      </c>
-      <c r="B7" s="95" t="str">
-        <f>""</f>
-        <v/>
-      </c>
-      <c r="C7" s="95">
-        <f>SUMIF('Product - Release Tracking'!A$4:A$17,'Report Data'!B7,'Product - Release Tracking'!N$4:N$17)</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="95">
-        <f>D6-E7-G7</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="95">
-        <f>SUMIF('Product - Release Tracking'!A$4:A$17,'Report Data'!B7,'Product - Release Tracking'!P$4:P$17)</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="95">
-        <f>SUMIF('Product - Release Tracking'!A$4:A$17,'Report Data'!B7,'Product - Release Tracking'!Q$4:Q$17)</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="95">
-        <f>SUMIF('Product - Release Tracking'!A$4:A$17,'Report Data'!B7,'Product - Release Tracking'!R$4:R$17)</f>
         <v>0</v>
       </c>
     </row>
@@ -12737,27 +12689,27 @@
   <sheetData>
     <row r="1" spans="1:10" s="97" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="96"/>
-      <c r="B1" s="165" t="s">
-        <v>133</v>
-      </c>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
-      <c r="F1" s="167"/>
+      <c r="B1" s="169" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" s="170"/>
+      <c r="D1" s="170"/>
+      <c r="E1" s="170"/>
+      <c r="F1" s="171"/>
     </row>
     <row r="2" spans="1:10" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="B4" s="98"/>
-      <c r="C4" s="168" t="s">
+      <c r="C4" s="172" t="s">
         <v>102</v>
       </c>
-      <c r="D4" s="168"/>
-      <c r="E4" s="168"/>
-      <c r="F4" s="168"/>
-      <c r="G4" s="169"/>
-      <c r="H4" s="169"/>
-      <c r="I4" s="169"/>
-      <c r="J4" s="169"/>
+      <c r="D4" s="172"/>
+      <c r="E4" s="172"/>
+      <c r="F4" s="172"/>
+      <c r="G4" s="173"/>
+      <c r="H4" s="173"/>
+      <c r="I4" s="173"/>
+      <c r="J4" s="173"/>
     </row>
     <row r="5" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B5" s="37" t="s">
@@ -13045,14 +12997,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="49" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="170" t="s">
+      <c r="A1" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="170"/>
-      <c r="C1" s="170"/>
-      <c r="D1" s="170"/>
-      <c r="E1" s="170"/>
-      <c r="F1" s="171"/>
+      <c r="B1" s="174"/>
+      <c r="C1" s="174"/>
+      <c r="D1" s="174"/>
+      <c r="E1" s="174"/>
+      <c r="F1" s="175"/>
     </row>
     <row r="2" spans="1:6" s="33" customFormat="1" ht="24" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="31"/>
@@ -13062,13 +13014,13 @@
       <c r="E2" s="32"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="172" t="s">
+      <c r="A3" s="176" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="172"/>
-      <c r="C3" s="172"/>
-      <c r="D3" s="172"/>
-      <c r="E3" s="172"/>
+      <c r="B3" s="176"/>
+      <c r="C3" s="176"/>
+      <c r="D3" s="176"/>
+      <c r="E3" s="176"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="34"/>
@@ -13077,26 +13029,26 @@
       <c r="A5" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="175" t="s">
+      <c r="B5" s="179" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="176"/>
-      <c r="D5" s="176"/>
-      <c r="E5" s="177"/>
+      <c r="C5" s="180"/>
+      <c r="D5" s="180"/>
+      <c r="E5" s="181"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="178" t="s">
+      <c r="B6" s="182" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="179"/>
-      <c r="D6" s="179"/>
-      <c r="E6" s="180"/>
+      <c r="C6" s="183"/>
+      <c r="D6" s="183"/>
+      <c r="E6" s="184"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="173" t="s">
+      <c r="A7" s="177" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="45" t="s">
@@ -13113,35 +13065,35 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="173"/>
+      <c r="A8" s="177"/>
       <c r="B8" s="36"/>
       <c r="C8" s="36"/>
       <c r="D8" s="48"/>
       <c r="E8" s="36"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="173"/>
+      <c r="A9" s="177"/>
       <c r="B9" s="36"/>
       <c r="C9" s="36"/>
       <c r="D9" s="48"/>
       <c r="E9" s="36"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="173"/>
+      <c r="A10" s="177"/>
       <c r="B10" s="36"/>
       <c r="C10" s="36"/>
       <c r="D10" s="48"/>
       <c r="E10" s="36"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="174"/>
+      <c r="A11" s="178"/>
       <c r="B11" s="36"/>
       <c r="C11" s="36"/>
       <c r="D11" s="48"/>
       <c r="E11" s="36"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="173" t="s">
+      <c r="A12" s="177" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="45" t="s">
@@ -13158,28 +13110,28 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="173"/>
+      <c r="A13" s="177"/>
       <c r="B13" s="36"/>
       <c r="C13" s="36"/>
       <c r="D13" s="48"/>
       <c r="E13" s="36"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="173"/>
+      <c r="A14" s="177"/>
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
       <c r="D14" s="48"/>
       <c r="E14" s="36"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="173"/>
+      <c r="A15" s="177"/>
       <c r="B15" s="36"/>
       <c r="C15" s="36"/>
       <c r="D15" s="48"/>
       <c r="E15" s="36"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="174"/>
+      <c r="A16" s="178"/>
       <c r="B16" s="36"/>
       <c r="C16" s="36"/>
       <c r="D16" s="48"/>
@@ -13204,26 +13156,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="951c5514-b77c-4532-82d5-a05f2f7d58e2">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties">
-  <LongProp xmlns="" name="PIPDescription"><![CDATA[Agile Process has been updated with Daikibo and SAFe framework. Accordingly the following artifacts are updated with Agile Release Plan Generator Product Backlog Checklist for Release Planning Agile Metrics Model Tailoring Guideline - Cognizant Agile Process Guideline for Daikibo Framework]]></LongProp>
-</LongProperties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007A9C735C9F3CD54A948D0AD38DF112BF" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3dab60aa55af7873d4fb0fb0a2c8c369">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="eac52b12-2228-488c-9d59-8a93d308b64e" xmlns:ns3="951c5514-b77c-4532-82d5-a05f2f7d58e2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="984ff00f1b2cb8248b6feb67eea399b9" ns2:_="" ns3:_="">
     <xsd:import namespace="eac52b12-2228-488c-9d59-8a93d308b64e"/>
@@ -13394,32 +13335,54 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties">
+  <LongProp xmlns="" name="PIPDescription"><![CDATA[Agile Process has been updated with Daikibo and SAFe framework. Accordingly the following artifacts are updated with Agile Release Plan Generator Product Backlog Checklist for Release Planning Agile Metrics Model Tailoring Guideline - Cognizant Agile Process Guideline for Daikibo Framework]]></LongProp>
+</LongProperties>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="951c5514-b77c-4532-82d5-a05f2f7d58e2">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3451E978-48B9-4D1F-809F-A4118E64D27B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13F11D9D-C7B8-4288-8F9C-B4F01751BE56}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="5349db9c-67ed-4999-a121-efc56dbedff2"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F621952D-A5A2-4E99-B92F-54994FC88363}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="eac52b12-2228-488c-9d59-8a93d308b64e"/>
+    <ds:schemaRef ds:uri="951c5514-b77c-4532-82d5-a05f2f7d58e2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3480BB77-980B-43DC-A421-1032363DCF0E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
@@ -13428,14 +13391,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F621952D-A5A2-4E99-B92F-54994FC88363}"/>
-</file>
-
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13F11D9D-C7B8-4288-8F9C-B4F01751BE56}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3451E978-48B9-4D1F-809F-A4118E64D27B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="951c5514-b77c-4532-82d5-a05f2f7d58e2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="eac52b12-2228-488c-9d59-8a93d308b64e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Product Backlog-144-Bill_Payment_System.xlsx
+++ b/Product Backlog-144-Bill_Payment_System.xlsx
@@ -2193,6 +2193,27 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2208,27 +2229,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5248,7 +5248,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
@@ -5631,25 +5631,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" s="55" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="151" t="s">
+      <c r="B1" s="158" t="s">
         <v>126</v>
       </c>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
+      <c r="C1" s="159"/>
+      <c r="D1" s="159"/>
+      <c r="E1" s="159"/>
+      <c r="F1" s="159"/>
+      <c r="G1" s="159"/>
+      <c r="H1" s="159"/>
       <c r="N1" s="56"/>
       <c r="O1" s="56"/>
     </row>
     <row r="2" spans="2:15" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="2:15" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="2:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="153" t="s">
+      <c r="C4" s="160" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="154"/>
+      <c r="D4" s="161"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C5" s="59" t="s">
@@ -5658,10 +5658,10 @@
       <c r="D5" s="59"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C6" s="155" t="s">
+      <c r="C6" s="162" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="156"/>
+      <c r="D6" s="163"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C7" s="60" t="s">
@@ -5736,16 +5736,16 @@
       </c>
     </row>
     <row r="18" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="153" t="s">
+      <c r="C18" s="160" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="154"/>
+      <c r="D18" s="161"/>
     </row>
     <row r="19" spans="3:4" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="149" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="157"/>
+      <c r="D19" s="164"/>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C20" s="60" t="s">
@@ -5936,45 +5936,39 @@
       <c r="D47" s="150"/>
     </row>
     <row r="50" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C50" s="164" t="s">
+      <c r="C50" s="157" t="s">
         <v>111</v>
       </c>
       <c r="D50" s="148"/>
     </row>
     <row r="51" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C51" s="158" t="s">
+      <c r="C51" s="151" t="s">
         <v>112</v>
       </c>
-      <c r="D51" s="159"/>
+      <c r="D51" s="152"/>
     </row>
     <row r="52" spans="3:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C52" s="160"/>
-      <c r="D52" s="161"/>
+      <c r="C52" s="153"/>
+      <c r="D52" s="154"/>
     </row>
     <row r="53" spans="3:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C53" s="160"/>
-      <c r="D53" s="161"/>
+      <c r="C53" s="153"/>
+      <c r="D53" s="154"/>
     </row>
     <row r="54" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C54" s="160"/>
-      <c r="D54" s="161"/>
+      <c r="C54" s="153"/>
+      <c r="D54" s="154"/>
     </row>
     <row r="55" spans="3:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C55" s="160"/>
-      <c r="D55" s="161"/>
+      <c r="C55" s="153"/>
+      <c r="D55" s="154"/>
     </row>
     <row r="56" spans="3:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C56" s="162"/>
-      <c r="D56" s="163"/>
+      <c r="C56" s="155"/>
+      <c r="D56" s="156"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C51:D56"/>
-    <mergeCell ref="C50:D50"/>
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="B1:H1"/>
@@ -5983,6 +5977,12 @@
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C51:D56"/>
+    <mergeCell ref="C50:D50"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1">
@@ -6026,15 +6026,15 @@
   <sheetData>
     <row r="1" spans="1:34" s="55" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="113"/>
-      <c r="B1" s="151" t="s">
+      <c r="B1" s="158" t="s">
         <v>127</v>
       </c>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
+      <c r="C1" s="159"/>
+      <c r="D1" s="159"/>
+      <c r="E1" s="159"/>
+      <c r="F1" s="159"/>
+      <c r="G1" s="159"/>
+      <c r="H1" s="159"/>
     </row>
     <row r="2" spans="1:34" s="70" customFormat="1" ht="39" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="114" t="s">
@@ -8697,16 +8697,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" s="55" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="151" t="s">
+      <c r="B1" s="158" t="s">
         <v>128</v>
       </c>
-      <c r="C1" s="151"/>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
-      <c r="I1" s="151"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="158"/>
+      <c r="G1" s="158"/>
+      <c r="H1" s="158"/>
+      <c r="I1" s="158"/>
       <c r="N1" s="56"/>
       <c r="O1" s="56"/>
     </row>
@@ -12518,15 +12518,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="55" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="151" t="s">
+      <c r="B1" s="158" t="s">
         <v>129</v>
       </c>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
+      <c r="C1" s="159"/>
+      <c r="D1" s="159"/>
+      <c r="E1" s="159"/>
+      <c r="F1" s="159"/>
+      <c r="G1" s="159"/>
+      <c r="H1" s="159"/>
       <c r="N1" s="56"/>
       <c r="O1" s="56"/>
     </row>
@@ -13156,15 +13156,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007A9C735C9F3CD54A948D0AD38DF112BF" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3dab60aa55af7873d4fb0fb0a2c8c369">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="eac52b12-2228-488c-9d59-8a93d308b64e" xmlns:ns3="951c5514-b77c-4532-82d5-a05f2f7d58e2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="984ff00f1b2cb8248b6feb67eea399b9" ns2:_="" ns3:_="">
     <xsd:import namespace="eac52b12-2228-488c-9d59-8a93d308b64e"/>
@@ -13335,13 +13326,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties">
-  <LongProp xmlns="" name="PIPDescription"><![CDATA[Agile Process has been updated with Daikibo and SAFe framework. Accordingly the following artifacts are updated with Agile Release Plan Generator Product Backlog Checklist for Release Planning Agile Metrics Model Tailoring Guideline - Cognizant Agile Process Guideline for Daikibo Framework]]></LongProp>
-</LongProperties>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <SharedWithUsers xmlns="951c5514-b77c-4532-82d5-a05f2f7d58e2">
@@ -13355,15 +13349,13 @@
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13F11D9D-C7B8-4288-8F9C-B4F01751BE56}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties">
+  <LongProp xmlns="" name="PIPDescription"><![CDATA[Agile Process has been updated with Daikibo and SAFe framework. Accordingly the following artifacts are updated with Agile Release Plan Generator Product Backlog Checklist for Release Planning Agile Metrics Model Tailoring Guideline - Cognizant Agile Process Guideline for Daikibo Framework]]></LongProp>
+</LongProperties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F621952D-A5A2-4E99-B92F-54994FC88363}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13382,16 +13374,15 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3480BB77-980B-43DC-A421-1032363DCF0E}">
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13F11D9D-C7B8-4288-8F9C-B4F01751BE56}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-    <ds:schemaRef ds:uri=""/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3451E978-48B9-4D1F-809F-A4118E64D27B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -13406,4 +13397,13 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3480BB77-980B-43DC-A421-1032363DCF0E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+    <ds:schemaRef ds:uri=""/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>